--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_9.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137508.7311334306</v>
+        <v>132880.6649337839</v>
       </c>
     </row>
     <row r="7">
@@ -26314,25 +26314,25 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="E2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="F2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="G2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="H2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="I2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="J2" t="n">
         <v>48378.33248915088</v>
@@ -26344,10 +26344,10 @@
         <v>48378.33248915088</v>
       </c>
       <c r="M2" t="n">
+        <v>48378.33248915087</v>
+      </c>
+      <c r="N2" t="n">
         <v>48378.33248915088</v>
-      </c>
-      <c r="N2" t="n">
-        <v>48378.33248915087</v>
       </c>
       <c r="O2" t="n">
         <v>48378.33248915087</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="C4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="E4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="F4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="G4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="H4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="I4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="J4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="K4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="L4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="M4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="N4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="O4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="P4" t="n">
-        <v>20948.32715815079</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6197.594668999918</v>
+        <v>-6750.748617138408</v>
       </c>
       <c r="C6" t="n">
-        <v>-6197.594668999918</v>
+        <v>-6750.748617138401</v>
       </c>
       <c r="D6" t="n">
-        <v>-6197.594668999911</v>
+        <v>-6750.748617138401</v>
       </c>
       <c r="E6" t="n">
-        <v>27430.00533100008</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="F6" t="n">
-        <v>27430.00533100009</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="G6" t="n">
-        <v>27430.00533100008</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="H6" t="n">
-        <v>27430.00533100009</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="I6" t="n">
-        <v>27430.00533100009</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="J6" t="n">
-        <v>27430.00533100009</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="K6" t="n">
-        <v>27430.00533100009</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="L6" t="n">
-        <v>27430.00533100009</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="M6" t="n">
-        <v>27430.00533100009</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="N6" t="n">
-        <v>27430.00533100008</v>
+        <v>26876.8513828616</v>
       </c>
       <c r="O6" t="n">
-        <v>27430.00533100008</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="P6" t="n">
-        <v>27430.00533100009</v>
+        <v>26876.8513828616</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="C2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="D2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E2" t="n">
         <v>48378.33248915088</v>
       </c>
       <c r="F2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="G2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="H2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="I2" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="J2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="K2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="L2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="M2" t="n">
         <v>48378.33248915087</v>
@@ -26353,7 +26355,7 @@
         <v>48378.33248915087</v>
       </c>
       <c r="P2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
     <row r="3">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138408</v>
+        <v>-6750.748617138397</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138397</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138404</v>
       </c>
       <c r="E6" t="n">
         <v>26876.8513828616</v>
       </c>
       <c r="F6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="G6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="H6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="I6" t="n">
         <v>26876.85138286159</v>
       </c>
       <c r="J6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="K6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="L6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286159</v>
       </c>
       <c r="M6" t="n">
         <v>26876.85138286159</v>
@@ -26561,7 +26563,7 @@
         <v>26876.85138286159</v>
       </c>
       <c r="P6" t="n">
-        <v>26876.8513828616</v>
+        <v>26876.85138286159</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_9.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_4_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132880.6649337839</v>
+        <v>6119.711064518873</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48378.33248915088</v>
+        <v>48378.33248915089</v>
       </c>
       <c r="C2" t="n">
         <v>48378.33248915088</v>
@@ -26325,28 +26325,28 @@
         <v>48378.33248915088</v>
       </c>
       <c r="F2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="G2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="H2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="I2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="J2" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="K2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="L2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="M2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="N2" t="n">
         <v>48378.33248915088</v>
@@ -26355,7 +26355,7 @@
         <v>48378.33248915087</v>
       </c>
       <c r="P2" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138397</v>
+        <v>-21901.42258717315</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138397</v>
+        <v>-21901.42258717316</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138404</v>
+        <v>-21901.42258717317</v>
       </c>
       <c r="E6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="F6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="G6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="H6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="I6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="J6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="K6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="L6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="M6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="N6" t="n">
-        <v>26876.8513828616</v>
+        <v>11726.17741282684</v>
       </c>
       <c r="O6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282683</v>
       </c>
       <c r="P6" t="n">
-        <v>26876.85138286159</v>
+        <v>11726.17741282684</v>
       </c>
     </row>
   </sheetData>
